--- a/CP-SAT/CPSATExam2/target/test-classes/TestData/TestData.xlsx
+++ b/CP-SAT/CPSATExam2/target/test-classes/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3173A49-4CEC-4EAC-8215-70C5E9A363B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C37FBB-7CEE-4A8D-8A80-9A02382DBA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question2" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="140">
   <si>
     <t>Headlines</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Vipul Jadhav</t>
+  </si>
+  <si>
+    <t>Search type</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658FD23A-3A2A-436D-9BD7-D188E6DEC5F4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2080,26 +2083,31 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A201AC8-3CD8-484B-9409-4AE900D0E4E1}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
